--- a/inst/WTCq_datasheet.xlsx
+++ b/inst/WTCq_datasheet.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\inst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316818A-125D-4BFB-8A41-4A7C79A5CBBF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="14660" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -117,42 +123,12 @@
     <t>Colorless</t>
   </si>
   <si>
-    <t>Rug Olefin     Triangular   X-S</t>
-  </si>
-  <si>
-    <t>Rug Nylon         “</t>
-  </si>
-  <si>
-    <t>Rug Polyester           “</t>
-  </si>
-  <si>
-    <t>Rug Olefin       Any X-S</t>
-  </si>
-  <si>
-    <t>Rug Nylon            “</t>
-  </si>
-  <si>
-    <t>Rug Polyester       “</t>
-  </si>
-  <si>
-    <t>Acrylic    Dogbone X-S</t>
-  </si>
-  <si>
-    <t>Acrylic    Round X-S</t>
-  </si>
-  <si>
-    <t>Acrylic   Other X-S</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modacrylic  </t>
   </si>
   <si>
     <t>Rayon</t>
   </si>
   <si>
-    <t xml:space="preserve">Acetate/ Triacetate </t>
-  </si>
-  <si>
     <t>Animal Hair</t>
   </si>
   <si>
@@ -334,13 +310,43 @@
   </si>
   <si>
     <t>Finger or Toe Nails</t>
+  </si>
+  <si>
+    <t>Rug Olefin Triangular X-S</t>
+  </si>
+  <si>
+    <t>Rug Nylon Triangular X-S</t>
+  </si>
+  <si>
+    <t>Rug Polyester Triangular X-S</t>
+  </si>
+  <si>
+    <t>Olefin Any X-S</t>
+  </si>
+  <si>
+    <t>Nylon  Any X-S</t>
+  </si>
+  <si>
+    <t>Polyester  Any X-S</t>
+  </si>
+  <si>
+    <t>Acrylic Dogbone X-S</t>
+  </si>
+  <si>
+    <t>Acrylic Round X-S</t>
+  </si>
+  <si>
+    <t>Acrylic Other X-S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetate/Triacetate </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,6 +392,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -710,29 +724,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -949,7 +963,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -969,7 +983,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -989,7 +1003,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1009,7 +1023,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1029,7 +1043,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1049,7 +1063,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1071,7 +1085,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1091,7 +1105,7 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1111,7 +1125,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1131,7 +1145,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1151,7 +1165,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1171,7 +1185,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1191,57 +1205,57 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1261,7 +1275,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1281,7 +1295,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1301,7 +1315,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1321,7 +1335,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1341,7 +1355,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1361,7 +1375,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>21</v>
@@ -1394,24 +1408,24 @@
         <v>31</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1433,7 +1447,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1453,7 +1467,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1475,7 +1489,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1495,7 +1509,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1515,7 +1529,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1535,7 +1549,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1555,7 +1569,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1575,7 +1589,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1595,7 +1609,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1615,7 +1629,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1635,7 +1649,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -1661,7 +1675,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -1683,7 +1697,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1703,16 +1717,16 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>25</v>
@@ -1735,7 +1749,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1">
         <v>1</v>
@@ -1757,7 +1771,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1777,7 +1791,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -1799,7 +1813,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -1821,7 +1835,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -1843,7 +1857,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1865,7 +1879,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -1887,7 +1901,7 @@
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1907,7 +1921,7 @@
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1927,7 +1941,7 @@
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1947,7 +1961,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1967,7 +1981,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
@@ -1989,7 +2003,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1">
         <v>1</v>
@@ -2011,7 +2025,7 @@
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -2033,7 +2047,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B58" s="1">
         <v>1</v>
@@ -2055,7 +2069,7 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2075,7 +2089,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2095,7 +2109,7 @@
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2115,7 +2129,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2135,7 +2149,7 @@
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2155,7 +2169,7 @@
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
